--- a/RASP_Result/RASP_Attacks.xlsx
+++ b/RASP_Result/RASP_Attacks.xlsx
@@ -1,12 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saika\Dropbox\MSOE_CyberSecurity_Course\vulnerability-detection-compare\RASP_Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86191D4B-EB4D-46D1-87DB-B3A846084784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="attacks (3)" sheetId="1" r:id="rId4"/>
+    <sheet name="attacks (3)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="okesZroAq4ZwGCNhrQ94rB97hTKdNBeWbdmxP4QJ1E8="/>
@@ -16,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -171,15 +181,9 @@
     <t>/openmrs/login.htm</t>
   </si>
   <si>
-    <t>username=1%22+or+%221%22%3D%221&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=13x1i5233gxnm17blwbruscq7w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,*/*;q=0.8,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/login.htm,Sec-Fetch-Dest=document,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=navigate,Upgrade-Insecure-Requests=1,Sec-Fetch-User=?1,Accept-Language=en-US,en;q=0.5,Content-Length=94,Content-Type=application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>password=contrast-redacted-authentication-info,redirectUrl=,sessionLocation=5,username=1" or "1"="1</t>
-  </si>
-  <si>
     <t>82a11f59-b2e3-4f86-90a8-ab8a5b80f9a6</t>
   </si>
   <si>
@@ -192,24 +196,12 @@
     <t>/openmrs/referenceapplication/login.page</t>
   </si>
   <si>
-    <t>username=1%22+or+%221%22%3D%221&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=4&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; JSESSIONID=13x1i5233gxnm17blwbruscq7w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,*/*;q=0.8,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/referenceapplication/login.page,Sec-Fetch-Dest=document,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=navigate,Upgrade-Insecure-Requests=1,Sec-Fetch-User=?1,Accept-Language=en-US,en;q=0.5,Content-Length=140,Content-Type=application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>password=contrast-redacted-authentication-info,redirectUrl=/openmrs/referenceapplication/login.page,sessionLocation=4,username=1" or "1"="1</t>
-  </si>
-  <si>
     <t>cbae268f-dd3d-4164-af08-766d909127c3</t>
   </si>
   <si>
-    <t>username=1%22+or+%221%22%3D%221&amp;password=contrast-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page</t>
-  </si>
-  <si>
-    <t>password=contrast-redacted-authentication-info,redirectUrl=/openmrs/referenceapplication/login.page,sessionLocation=5,username=1" or "1"="1</t>
-  </si>
-  <si>
     <t>a635f97a-a72e-42ca-b38a-27750df23cf4</t>
   </si>
   <si>
@@ -270,15 +262,9 @@
     <t>patientId=19&amp;returnUrl=%2Fopenmrs%2Fcoreapps%2Fclinicianfacing%2Fpatient.page%3FpatientId%3D17dfbcb5-f543-4354-96b3-036a38796765%26&amp;appId=referenceapplication.registrationapp.registerPatient&amp;sectionId=contactInfo</t>
   </si>
   <si>
-    <t>address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=Test+Street&amp;cityVillage=Raleigh&amp;stateProvince=NC&amp;country=contrast-redacted-contact-info&amp;postalCode=27607&amp;phoneNumber=contrast-redacted-contact-info</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,*/*;q=0.8,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/editSection.page?patientId=19&amp;sectionId=contactInfo&amp;appId=referenceapplication.registrationapp.registerPatient&amp;returnUrl=%2Fopenmrs%2Fcoreapps%2Fclinicianfacing%2Fpatient.page%3FpatientId%3D17dfbcb5-f543-4354-96b3-036a38796765%26,Sec-Fetch-Dest=document,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=navigate,Upgrade-Insecure-Requests=1,Sec-Fetch-User=?1,Accept-Language=en-US,en;q=0.5,Content-Length=175,Content-Type=application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,phoneNumber=contrast-redacted-contact-info,patientId=19,address2=Test Street,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,appId=referenceapplication.registrationapp.registerPatient,postalCode=27607,stateProvince=NC,sectionId=contactInfo,cityVillage=Raleigh,returnUrl=/openmrs/coreapps/clinicianfacing/patient.page?patientId=17dfbcb5-f543-4354-96b3-036a38796765&amp;</t>
-  </si>
-  <si>
     <t>IAST2-029, 881?</t>
   </si>
   <si>
@@ -294,15 +280,9 @@
     <t>/openmrs/adminui/systemadmin/accounts/account.page</t>
   </si>
   <si>
-    <t>familyName=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;givenName=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;gender=contrast-redacted-name&amp;addUserAccount=true&amp;username=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;privilegeLevel=ab2160f6-0941-430c-9752-6714353fbd3c&amp;password=contrast-redacted-authentication-info&amp;confirmPassword=contrast-redacted-authentication-info&amp;identifier=&amp;providerRole=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,*/*;q=0.8,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/adminui/systemadmin/accounts/account.page,Sec-Fetch-Dest=document,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=navigate,Upgrade-Insecure-Requests=1,Sec-Fetch-User=?1,Accept-Language=en-US,en;q=0.5,Content-Length=416,Content-Type=application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>identifier=,password=contrast-redacted-authentication-info,providerRole=,gender=contrast-redacted-name,privilegeLevel=ab2160f6-0941-430c-9752-6714353fbd3c,familyName=&lt;script&gt;alert("hello")&lt;/script&gt; ,givenName=&lt;script&gt;alert("hello")&lt;/script&gt; ,confirmPassword=contrast-redacted-authentication-info,addUserAccount=true,username=&lt;script&gt;alert("hello")&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>942?</t>
   </si>
   <si>
@@ -318,15 +298,9 @@
     <t>appId=referenceapplication.registrationapp.registerPatient</t>
   </si>
   <si>
-    <t>givenName=XSS&amp;middleName=contrast-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=ds&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=362,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2000,address2=ds,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>Duplicate?</t>
   </si>
   <si>
@@ -336,15 +310,9 @@
     <t>a1d5ec0b-3703-415e-ba6f-7a69fbd8426f</t>
   </si>
   <si>
-    <t>givenName=XSS&amp;middleName=contrast-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=360,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2000,address2=,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>6980bf40-adf4-4af7-ba3d-b520eaca0bc7</t>
   </si>
   <si>
@@ -363,15 +331,9 @@
     <t>address2</t>
   </si>
   <si>
-    <t>givenName=XSS&amp;middleName=contrast-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=406,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2000,address2=&lt;script&gt;alert("hello")&lt;/script&gt; ,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>c3747c3c-6507-4ede-a71a-70ea3240c575</t>
   </si>
   <si>
@@ -390,30 +352,18 @@
     <t>&lt;iframe src=https://www.csc.ncsu.edu/&gt;</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=329,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>EMPT</t>
   </si>
   <si>
     <t>2edf09f4-8c71-436f-9cf5-c0745d9c14d2</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=324,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>7eb993d6-cd45-4b6f-9a94-7d15561e226e</t>
   </si>
   <si>
@@ -429,51 +379,27 @@
     <t>a40b9752-ff32-4269-8bca-2e29411ac658</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=338,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>edd6d03a-0290-42f3-93f3-f20daef5cd76</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=339,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>88381b8b-84f6-4910-9bf7-a750c4dd67f6</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=2001&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=352,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2001,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>58170635-8264-4e52-b860-8601e7e3f31e</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=2001&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=apt+34&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=358,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2001,address2=,address1=apt 34,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>SMPT, EMPT, DAST</t>
   </si>
   <si>
@@ -486,15 +412,9 @@
     <t>a593f493-b688-4d4c-bff7-e30a140c8cc4</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=contrast-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=340,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>41cf9087-0433-458d-863f-ac02c701ec06</t>
   </si>
   <si>
@@ -510,93 +430,45 @@
     <t>&lt;iframe src="javascript:alert('hello')"&gt;</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=337,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>38ab00de-99bb-44de-b3f4-db9baa8587b7</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=350,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2000,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>218f4618-955a-45d1-8ec2-861387998a49</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=327,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>adf52f0c-eef6-4898-a0ec-394424fae545</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>9ec90afa-7141-4141-90f7-6c612a3362a8</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=336,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>7c036c08-613b-4787-a2c9-bf4fe90ffdfb</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>48d0c9c0-b8c2-4b07-af74-59fbc9c96ccd</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=200&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=348,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=200,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>e474f0f1-eb02-488d-a3dc-2a5dcd6b734c</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=402,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2000,address2=,address1=&lt;iframe src="javascript:alert('hello')"&gt;,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>e68c2f4b-b2dd-481c-a642-564cea8000d8</t>
   </si>
   <si>
@@ -609,42 +481,24 @@
     <t>patientId=95&amp;returnUrl=%2Fopenmrs%2Fcoreapps%2Fclinicianfacing%2Fpatient.page%3FpatientId%3D0d1636ff-c4d8-49ed-aa19-32f424814559%26&amp;appId=referenceapplication.registrationapp.registerPatient&amp;sectionId=demographics</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=contrast-redacted-name&amp;familyName=pattest&amp;preferred=true&amp;gender=contrast-redacted-name&amp;birthdateDay=1&amp;birthdateMonth=11&amp;birthdateYear=2001&amp;birthdateEstimated=false&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=text/html,application/xhtml+xml,application/xml;q=0.9,image/avif,image/webp,*/*;q=0.8,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/editSection.page?patientId=95&amp;sectionId=demographics&amp;appId=referenceapplication.registrationapp.registerPatient&amp;returnUrl=%2Fopenmrs%2Fcoreapps%2Fclinicianfacing%2Fpatient.page%3FpatientId%3D0d1636ff-c4d8-49ed-aa19-32f424814559%26,Sec-Fetch-Dest=document,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=navigate,Upgrade-Insecure-Requests=1,Sec-Fetch-User=?1,Accept-Language=en-US,en;q=0.5,Content-Length=255,Content-Type=application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2001,patientId=95,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,sectionId=demographics,birthdateYears=,birthdateMonth=11,birthdateEstimated=false,appId=referenceapplication.registrationapp.registerPatient,familyName=pattest,middleName=contrast-redacted-name,returnUrl=/openmrs/coreapps/clinicianfacing/patient.page?patientId=0d1636ff-c4d8-49ed-aa19-32f424814559&amp;,preferred=true</t>
-  </si>
-  <si>
     <t>97637f7c-f57d-4632-81a8-5416e998596f</t>
   </si>
   <si>
     <t>&lt;iframe src="javascript:alert(`hello`)</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=322,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>236072e6-767e-40d7-a34c-00daf60c0579</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2002&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=222&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=398,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2002,address2=,address1=222,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>706fedad-4ca0-44b4-ac16-16e8904e2291</t>
   </si>
   <si>
@@ -660,15 +514,9 @@
     <t>c044133a-7a31-401c-a329-5460857710e1</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=382,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>654850c8-7a23-44a1-9715-59095adf8756</t>
   </si>
   <si>
@@ -681,51 +529,27 @@
     <t>b63a978f-f107-490f-b0ef-8789ebfda480</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=381,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>e16224b0-4dbf-4194-b341-4d8b967c3b6b</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2002&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=395,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=2002,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>8c258faf-30c3-40b5-8191-2a97c6953a7c</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=372,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>245733cd-aa7f-4c59-8223-aef2a29987e0</t>
   </si>
   <si>
-    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=contrast-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=contrast-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=contrast-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=contrast-redacted-contact-info&amp;postalCode=&amp;phoneNumber=contrast-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
-  </si>
-  <si>
     <t>Origin=http://localhost:8080,Cookie=JSESSIONID=187hufu49ipoo16c0tv3lz2w1w; referenceapplication.lastSessionLocation=5; _REFERENCE_APPLICATION_LAST_USER_=92668751; dashboardTab-1=patientOverviewTab,Accept=application/json, text/javascript, */*; q=0.01,X-Requested-With=XMLHttpRequest,User-Agent=Mozilla/5.0 (X11; Ubuntu; Linux x86_64; rv:93.0) Gecko/20100101 Firefox/93.0,Connection=keep-alive,Referer=http://localhost:8080/openmrs/registrationapp/registerPatient.page?appId=referenceapplication.registrationapp.registerPatient,Sec-Fetch-Dest=empty,Sec-Fetch-Site=same-origin,Host=localhost:8080,Accept-Encoding=gzip, deflate,Sec-Fetch-Mode=cors,Accept-Language=en-US,en;q=0.5,Content-Length=383,Content-Type=application/x-www-form-urlencoded; charset=UTF-8</t>
   </si>
   <si>
-    <t>country=contrast-redacted-contact-info,birthdate=contrast-redacted-birth-data,gender=contrast-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=contrast-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=contrast-redacted-name,other_person_uuid=,preferred=true</t>
-  </si>
-  <si>
     <t>f21deda3-fe80-46cc-b3ba-4a094d8266c2</t>
   </si>
   <si>
@@ -754,27 +578,218 @@
   </si>
   <si>
     <t>986 for FindPatients</t>
+  </si>
+  <si>
+    <t>#ERROR!</t>
+  </si>
+  <si>
+    <t>username=1%22+or+%221%22%3D%221&amp;password=IAST1-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=</t>
+  </si>
+  <si>
+    <t>password=IAST1-redacted-authentication-info,redirectUrl=,sessionLocation=5,username=1" or "1"="1</t>
+  </si>
+  <si>
+    <t>username=1%22+or+%221%22%3D%221&amp;password=IAST1-redacted-authentication-info&amp;sessionLocation=4&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page</t>
+  </si>
+  <si>
+    <t>password=IAST1-redacted-authentication-info,redirectUrl=/openmrs/referenceapplication/login.page,sessionLocation=4,username=1" or "1"="1</t>
+  </si>
+  <si>
+    <t>username=1%22+or+%221%22%3D%221&amp;password=IAST1-redacted-authentication-info&amp;sessionLocation=5&amp;redirectUrl=%2Fopenmrs%2Freferenceapplication%2Flogin.page</t>
+  </si>
+  <si>
+    <t>password=IAST1-redacted-authentication-info,redirectUrl=/openmrs/referenceapplication/login.page,sessionLocation=5,username=1" or "1"="1</t>
+  </si>
+  <si>
+    <t>address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=Test+Street&amp;cityVillage=Raleigh&amp;stateProvince=NC&amp;country=IAST1-redacted-contact-info&amp;postalCode=27607&amp;phoneNumber=IAST1-redacted-contact-info</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,phoneNumber=IAST1-redacted-contact-info,patientId=19,address2=Test Street,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,appId=referenceapplication.registrationapp.registerPatient,postalCode=27607,stateProvince=NC,sectionId=contactInfo,cityVillage=Raleigh,returnUrl=/openmrs/coreapps/clinicianfacing/patient.page?patientId=17dfbcb5-f543-4354-96b3-036a38796765&amp;</t>
+  </si>
+  <si>
+    <t>familyName=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;givenName=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;gender=IAST1-redacted-name&amp;addUserAccount=true&amp;username=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;privilegeLevel=ab2160f6-0941-430c-9752-6714353fbd3c&amp;password=IAST1-redacted-authentication-info&amp;confirmPassword=IAST1-redacted-authentication-info&amp;identifier=&amp;providerRole=</t>
+  </si>
+  <si>
+    <t>identifier=,password=IAST1-redacted-authentication-info,providerRole=,gender=IAST1-redacted-name,privilegeLevel=ab2160f6-0941-430c-9752-6714353fbd3c,familyName=&lt;script&gt;alert("hello")&lt;/script&gt; ,givenName=&lt;script&gt;alert("hello")&lt;/script&gt; ,confirmPassword=IAST1-redacted-authentication-info,addUserAccount=true,username=&lt;script&gt;alert("hello")&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>givenName=XSS&amp;middleName=IAST1-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=ds&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2000,address2=ds,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=XSS&amp;middleName=IAST1-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2000,address2=,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=XSS&amp;middleName=IAST1-redacted-name&amp;familyName=test&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=%3E%3Cscript%3Ealert%28document.cookie%29%3C%2Fscript%3E&amp;address2=%3Cscript%3Ealert%28%22hello%22%29%3C%2Fscript%3E+&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2000,address2=&lt;script&gt;alert("hello")&lt;/script&gt; ,address1=&gt;&lt;script&gt;alert(document.cookie)&lt;/script&gt;,postalCode=,givenName=XSS,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=test,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=2001&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2001,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=2001&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=apt+34&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2001,address2=,address1=apt 34,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3Dhttps%3A%2F%2Fwww.csc.ncsu.edu%2F%3E&amp;middleName=IAST1-redacted-name&amp;familyName=Testd&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=2&amp;birthdateMonth=5&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src=https://www.csc.ncsu.edu/&gt;,birthdateMonths=,birthdateDay=2,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=5,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=Testd,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2000,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=200&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=200,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=fam&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=8&amp;birthdateYear=2000&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2000,address2=,address1=&lt;iframe src="javascript:alert('hello')"&gt;,postalCode=,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=8,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=fam,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%27hello%27%29%22%3E&amp;middleName=IAST1-redacted-name&amp;familyName=pattest&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;birthdateDay=1&amp;birthdateMonth=11&amp;birthdateYear=2001&amp;birthdateEstimated=false&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data</t>
+  </si>
+  <si>
+    <t>birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2001,patientId=95,givenName=&lt;iframe src="javascript:alert('hello')"&gt;,birthdateMonths=,birthdateDay=1,sectionId=demographics,birthdateYears=,birthdateMonth=11,birthdateEstimated=false,appId=referenceapplication.registrationapp.registerPatient,familyName=pattest,middleName=IAST1-redacted-name,returnUrl=/openmrs/coreapps/clinicianfacing/patient.page?patientId=0d1636ff-c4d8-49ed-aa19-32f424814559&amp;,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=,middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2002&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=222&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2002,address2=,address1=222,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=2002&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=2002,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;unknown=false&amp;birthdateDay=&amp;birthdateMonth=&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,birthdateYear=,address2=,address1=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,postalCode=,birthdateDay=,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
+  </si>
+  <si>
+    <t>givenName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;middleName=IAST1-redacted-name&amp;familyName=%3Ciframe+src%3D%22javascript%3Aalert%28%60hello%60%29&amp;preferred=true&amp;gender=IAST1-redacted-name&amp;unknown=false&amp;birthdateDay=1&amp;birthdateMonth=3&amp;birthdateYear=&amp;birthdateYears=&amp;birthdateMonths=&amp;birthdate=IAST1-redacted-birth-data&amp;address1=&amp;address2=&amp;cityVillage=&amp;stateProvince=&amp;country=IAST1-redacted-contact-info&amp;postalCode=&amp;phoneNumber=IAST1-redacted-contact-info&amp;relationship_type=&amp;other_person_uuid=</t>
+  </si>
+  <si>
+    <t>country=IAST1-redacted-contact-info,birthdate=IAST1-redacted-birth-data,gender=IAST1-redacted-name,birthdateYear=,address2=,address1=,postalCode=,givenName=&lt;iframe src="javascript:alert(`hello`),birthdateMonths=,birthdateDay=1,stateProvince=,cityVillage=,unknown=false,birthdateYears=,birthdateMonth=3,phoneNumber=IAST1-redacted-contact-info,relationship_type=,appId=referenceapplication.registrationapp.registerPatient,familyName=&lt;iframe src="javascript:alert(`hello`),middleName=IAST1-redacted-name,other_person_uuid=,preferred=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -784,7 +799,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -800,42 +815,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1025,23 +1049,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="24" width="12.63"/>
+    <col min="1" max="24" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,9 +1174,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="15.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
@@ -1170,7 +1199,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>39</v>
@@ -1185,17 +1214,17 @@
         <v>35</v>
       </c>
       <c r="O2" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3">
-        <v>764197.0</v>
+        <v>764197</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>43</v>
@@ -1210,7 +1239,7 @@
         <v>46</v>
       </c>
       <c r="X2" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>47</v>
@@ -1226,21 +1255,21 @@
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="AF2" s="3" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
     </row>
-    <row r="3" ht="15.75" hidden="1" customHeight="1">
+    <row r="3" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>34</v>
@@ -1263,7 +1292,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>39</v>
@@ -1278,20 +1307,20 @@
         <v>35</v>
       </c>
       <c r="O3" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q3" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3">
-        <v>764198.0</v>
+        <v>764198</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>44</v>
@@ -1303,13 +1332,13 @@
         <v>46</v>
       </c>
       <c r="X3" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>49</v>
@@ -1319,21 +1348,21 @@
       </c>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="AF3" s="3" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
     </row>
-    <row r="4" ht="15.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>34</v>
@@ -1356,7 +1385,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>39</v>
@@ -1371,20 +1400,20 @@
         <v>35</v>
       </c>
       <c r="O4" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3">
-        <v>764199.0</v>
+        <v>764199</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>44</v>
@@ -1396,37 +1425,37 @@
         <v>46</v>
       </c>
       <c r="X4" s="4">
-        <v>44727.83300925926</v>
+        <v>44727.833009259259</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
     </row>
-    <row r="5" ht="15.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
@@ -1449,7 +1478,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>39</v>
@@ -1464,20 +1493,20 @@
         <v>35</v>
       </c>
       <c r="O5" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3">
-        <v>764200.0</v>
+        <v>764200</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>44</v>
@@ -1489,37 +1518,37 @@
         <v>46</v>
       </c>
       <c r="X5" s="4">
-        <v>44727.83300925926</v>
+        <v>44727.833009259259</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
     </row>
-    <row r="6" ht="15.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
@@ -1542,7 +1571,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>39</v>
@@ -1557,20 +1586,20 @@
         <v>35</v>
       </c>
       <c r="O6" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q6" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3">
-        <v>764201.0</v>
+        <v>764201</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>44</v>
@@ -1582,7 +1611,7 @@
         <v>46</v>
       </c>
       <c r="X6" s="4">
-        <v>44727.83300925926</v>
+        <v>44727.833009259259</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>47</v>
@@ -1594,25 +1623,25 @@
         <v>49</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -1635,7 +1664,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>39</v>
@@ -1650,20 +1679,20 @@
         <v>35</v>
       </c>
       <c r="O7" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="4">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3">
-        <v>764202.0</v>
+        <v>764202</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>44</v>
@@ -1675,7 +1704,7 @@
         <v>46</v>
       </c>
       <c r="X7" s="4">
-        <v>44727.83300925926</v>
+        <v>44727.833009259259</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>47</v>
@@ -1687,25 +1716,25 @@
         <v>49</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1726,7 +1755,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>39</v>
@@ -1741,25 +1770,25 @@
         <v>35</v>
       </c>
       <c r="O8" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S8" s="1">
-        <v>764287.0</v>
+        <v>764287</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>35</v>
@@ -1768,34 +1797,33 @@
         <v>44727.851435185185</v>
       </c>
       <c r="Y8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -1816,7 +1844,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>39</v>
@@ -1831,60 +1859,59 @@
         <v>35</v>
       </c>
       <c r="O9" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q9" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S9" s="1">
-        <v>764290.0</v>
+        <v>764290</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X9" s="6">
-        <v>44727.85490740741</v>
+        <v>44727.854907407411</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AB9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF9" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1905,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>39</v>
@@ -1920,25 +1947,25 @@
         <v>35</v>
       </c>
       <c r="O10" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S10" s="1">
-        <v>764291.0</v>
+        <v>764291</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>35</v>
@@ -1950,36 +1977,36 @@
         <v>47</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -2000,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>39</v>
@@ -2015,31 +2042,31 @@
         <v>35</v>
       </c>
       <c r="O11" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S11" s="1">
-        <v>764292.0</v>
+        <v>764292</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X11" s="6">
-        <v>44727.86394675926</v>
+        <v>44727.863946759258</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>47</v>
@@ -2048,30 +2075,30 @@
         <v>48</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -2092,7 +2119,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>39</v>
@@ -2107,25 +2134,25 @@
         <v>35</v>
       </c>
       <c r="O12" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S12" s="1">
-        <v>764293.0</v>
+        <v>764293</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>35</v>
@@ -2137,37 +2164,37 @@
         <v>47</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -2188,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>39</v>
@@ -2203,25 +2230,25 @@
         <v>35</v>
       </c>
       <c r="O13" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S13" s="1">
-        <v>764294.0</v>
+        <v>764294</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>35</v>
@@ -2233,35 +2260,35 @@
         <v>47</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -2282,7 +2309,7 @@
         <v>38</v>
       </c>
       <c r="J14" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>39</v>
@@ -2297,25 +2324,25 @@
         <v>35</v>
       </c>
       <c r="O14" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S14" s="1">
-        <v>764295.0</v>
+        <v>764295</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>35</v>
@@ -2327,35 +2354,35 @@
         <v>47</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2376,7 +2403,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>39</v>
@@ -2391,25 +2418,25 @@
         <v>35</v>
       </c>
       <c r="O15" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q15" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S15" s="1">
-        <v>764296.0</v>
+        <v>764296</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>35</v>
@@ -2421,35 +2448,35 @@
         <v>47</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2470,7 +2497,7 @@
         <v>38</v>
       </c>
       <c r="J16" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>39</v>
@@ -2485,67 +2512,67 @@
         <v>35</v>
       </c>
       <c r="O16" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S16" s="1">
-        <v>764297.0</v>
+        <v>764297</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X16" s="6">
-        <v>44727.88584490741</v>
+        <v>44727.885844907411</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -2566,7 +2593,7 @@
         <v>38</v>
       </c>
       <c r="J17" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>39</v>
@@ -2581,66 +2608,66 @@
         <v>35</v>
       </c>
       <c r="O17" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q17" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S17" s="1">
-        <v>764298.0</v>
+        <v>764298</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X17" s="6">
-        <v>44727.88584490741</v>
+        <v>44727.885844907411</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="AH17" s="2">
-        <v>917.0</v>
+        <v>917</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
@@ -2661,7 +2688,7 @@
         <v>38</v>
       </c>
       <c r="J18" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>39</v>
@@ -2676,65 +2703,65 @@
         <v>35</v>
       </c>
       <c r="O18" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q18" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S18" s="1">
-        <v>764299.0</v>
+        <v>764299</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X18" s="6">
-        <v>44727.88584490741</v>
+        <v>44727.885844907411</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -2755,7 +2782,7 @@
         <v>38</v>
       </c>
       <c r="J19" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>39</v>
@@ -2770,25 +2797,25 @@
         <v>35</v>
       </c>
       <c r="O19" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S19" s="1">
-        <v>764300.0</v>
+        <v>764300</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>35</v>
@@ -2800,39 +2827,39 @@
         <v>47</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH19" s="2">
-        <v>986.0</v>
+        <v>986</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
@@ -2853,7 +2880,7 @@
         <v>38</v>
       </c>
       <c r="J20" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>39</v>
@@ -2868,25 +2895,25 @@
         <v>35</v>
       </c>
       <c r="O20" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q20" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S20" s="1">
-        <v>764301.0</v>
+        <v>764301</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>35</v>
@@ -2898,35 +2925,35 @@
         <v>47</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
@@ -2947,7 +2974,7 @@
         <v>38</v>
       </c>
       <c r="J21" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>39</v>
@@ -2962,25 +2989,25 @@
         <v>35</v>
       </c>
       <c r="O21" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S21" s="1">
-        <v>764302.0</v>
+        <v>764302</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>35</v>
@@ -2989,30 +3016,29 @@
         <v>44727.88653935185</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF21" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
+        <v>115</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -3033,7 +3059,7 @@
         <v>38</v>
       </c>
       <c r="J22" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>39</v>
@@ -3048,25 +3074,25 @@
         <v>35</v>
       </c>
       <c r="O22" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q22" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S22" s="1">
-        <v>764303.0</v>
+        <v>764303</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>35</v>
@@ -3078,35 +3104,35 @@
         <v>47</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -3127,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="J23" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>39</v>
@@ -3142,25 +3168,25 @@
         <v>35</v>
       </c>
       <c r="O23" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S23" s="1">
-        <v>764304.0</v>
+        <v>764304</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>35</v>
@@ -3172,35 +3198,35 @@
         <v>47</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -3221,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="J24" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>39</v>
@@ -3236,65 +3262,65 @@
         <v>35</v>
       </c>
       <c r="O24" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S24" s="1">
-        <v>764305.0</v>
+        <v>764305</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X24" s="6">
-        <v>44727.88688657407</v>
+        <v>44727.886886574073</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -3315,7 +3341,7 @@
         <v>38</v>
       </c>
       <c r="J25" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>39</v>
@@ -3330,66 +3356,66 @@
         <v>35</v>
       </c>
       <c r="O25" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q25" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S25" s="1">
-        <v>764306.0</v>
+        <v>764306</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X25" s="6">
-        <v>44727.88688657407</v>
+        <v>44727.886886574073</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AF25" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="AH25" s="2">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="AI25" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -3410,7 +3436,7 @@
         <v>38</v>
       </c>
       <c r="J26" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>39</v>
@@ -3425,69 +3451,69 @@
         <v>35</v>
       </c>
       <c r="O26" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S26" s="1">
-        <v>764307.0</v>
+        <v>764307</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X26" s="6">
-        <v>44727.88688657407</v>
+        <v>44727.886886574073</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AF26" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AH26" s="2">
-        <v>986.0</v>
+        <v>986</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
@@ -3508,7 +3534,7 @@
         <v>38</v>
       </c>
       <c r="J27" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>39</v>
@@ -3523,65 +3549,65 @@
         <v>35</v>
       </c>
       <c r="O27" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q27" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S27" s="1">
-        <v>764308.0</v>
+        <v>764308</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X27" s="6">
-        <v>44727.88688657407</v>
+        <v>44727.886886574073</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AF27" s="1" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -3602,7 +3628,7 @@
         <v>38</v>
       </c>
       <c r="J28" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>39</v>
@@ -3617,65 +3643,65 @@
         <v>35</v>
       </c>
       <c r="O28" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q28" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S28" s="1">
-        <v>764309.0</v>
+        <v>764309</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X28" s="6">
-        <v>44727.88688657407</v>
+        <v>44727.886886574073</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
@@ -3696,7 +3722,7 @@
         <v>38</v>
       </c>
       <c r="J29" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>39</v>
@@ -3711,25 +3737,25 @@
         <v>35</v>
       </c>
       <c r="O29" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q29" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S29" s="1">
-        <v>764310.0</v>
+        <v>764310</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W29" s="1" t="s">
         <v>35</v>
@@ -3738,33 +3764,32 @@
         <v>44727.90184027778</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF29" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
+        <v>115</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -3785,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="J30" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>39</v>
@@ -3800,25 +3825,25 @@
         <v>35</v>
       </c>
       <c r="O30" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q30" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S30" s="1">
-        <v>764311.0</v>
+        <v>764311</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W30" s="1" t="s">
         <v>35</v>
@@ -3830,35 +3855,35 @@
         <v>47</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -3879,7 +3904,7 @@
         <v>38</v>
       </c>
       <c r="J31" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>39</v>
@@ -3894,25 +3919,25 @@
         <v>35</v>
       </c>
       <c r="O31" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q31" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S31" s="1">
-        <v>764312.0</v>
+        <v>764312</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>35</v>
@@ -3924,35 +3949,35 @@
         <v>47</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -3973,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="J32" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>39</v>
@@ -3988,25 +4013,25 @@
         <v>35</v>
       </c>
       <c r="O32" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q32" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S32" s="1">
-        <v>764313.0</v>
+        <v>764313</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W32" s="1" t="s">
         <v>35</v>
@@ -4018,35 +4043,35 @@
         <v>47</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -4067,7 +4092,7 @@
         <v>38</v>
       </c>
       <c r="J33" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>39</v>
@@ -4082,25 +4107,25 @@
         <v>35</v>
       </c>
       <c r="O33" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q33" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S33" s="1">
-        <v>764314.0</v>
+        <v>764314</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W33" s="1" t="s">
         <v>35</v>
@@ -4112,35 +4137,35 @@
         <v>47</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -4161,7 +4186,7 @@
         <v>38</v>
       </c>
       <c r="J34" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>39</v>
@@ -4176,25 +4201,25 @@
         <v>35</v>
       </c>
       <c r="O34" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q34" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S34" s="1">
-        <v>764315.0</v>
+        <v>764315</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W34" s="1" t="s">
         <v>35</v>
@@ -4206,35 +4231,35 @@
         <v>47</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -4255,7 +4280,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>39</v>
@@ -4270,25 +4295,25 @@
         <v>35</v>
       </c>
       <c r="O35" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q35" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S35" s="1">
-        <v>764316.0</v>
+        <v>764316</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>35</v>
@@ -4300,35 +4325,35 @@
         <v>47</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -4349,7 +4374,7 @@
         <v>38</v>
       </c>
       <c r="J36" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>39</v>
@@ -4364,25 +4389,25 @@
         <v>35</v>
       </c>
       <c r="O36" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q36" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S36" s="1">
-        <v>764317.0</v>
+        <v>764317</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W36" s="1" t="s">
         <v>35</v>
@@ -4394,35 +4419,35 @@
         <v>47</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
@@ -4443,7 +4468,7 @@
         <v>38</v>
       </c>
       <c r="J37" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>39</v>
@@ -4458,65 +4483,65 @@
         <v>35</v>
       </c>
       <c r="O37" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q37" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S37" s="1">
-        <v>764318.0</v>
+        <v>764318</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X37" s="6">
-        <v>44727.9021875</v>
+        <v>44727.902187500003</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
@@ -4537,7 +4562,7 @@
         <v>38</v>
       </c>
       <c r="J38" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>39</v>
@@ -4552,65 +4577,65 @@
         <v>35</v>
       </c>
       <c r="O38" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q38" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S38" s="1">
-        <v>764319.0</v>
+        <v>764319</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X38" s="6">
-        <v>44727.9021875</v>
+        <v>44727.902187500003</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -4631,7 +4656,7 @@
         <v>38</v>
       </c>
       <c r="J39" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>39</v>
@@ -4646,65 +4671,65 @@
         <v>35</v>
       </c>
       <c r="O39" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q39" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S39" s="1">
-        <v>764320.0</v>
+        <v>764320</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X39" s="6">
-        <v>44727.9021875</v>
+        <v>44727.902187500003</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>34</v>
@@ -4725,7 +4750,7 @@
         <v>38</v>
       </c>
       <c r="J40" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>39</v>
@@ -4740,25 +4765,25 @@
         <v>35</v>
       </c>
       <c r="O40" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q40" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S40" s="1">
-        <v>764321.0</v>
+        <v>764321</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>35</v>
@@ -4770,32 +4795,32 @@
         <v>47</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -4816,7 +4841,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>39</v>
@@ -4831,65 +4856,65 @@
         <v>35</v>
       </c>
       <c r="O41" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S41" s="1">
-        <v>764322.0</v>
+        <v>764322</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X41" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>34</v>
@@ -4910,7 +4935,7 @@
         <v>38</v>
       </c>
       <c r="J42" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>39</v>
@@ -4925,65 +4950,65 @@
         <v>35</v>
       </c>
       <c r="O42" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S42" s="1">
-        <v>764323.0</v>
+        <v>764323</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X42" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>34</v>
@@ -5004,7 +5029,7 @@
         <v>38</v>
       </c>
       <c r="J43" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>39</v>
@@ -5019,61 +5044,60 @@
         <v>35</v>
       </c>
       <c r="O43" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q43" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S43" s="1">
-        <v>764324.0</v>
+        <v>764324</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X43" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF43" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
+        <v>115</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>34</v>
@@ -5094,7 +5118,7 @@
         <v>38</v>
       </c>
       <c r="J44" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>39</v>
@@ -5109,65 +5133,65 @@
         <v>35</v>
       </c>
       <c r="O44" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S44" s="1">
-        <v>764325.0</v>
+        <v>764325</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X44" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>34</v>
@@ -5188,7 +5212,7 @@
         <v>38</v>
       </c>
       <c r="J45" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>39</v>
@@ -5203,60 +5227,59 @@
         <v>35</v>
       </c>
       <c r="O45" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q45" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S45" s="1">
-        <v>764326.0</v>
+        <v>764326</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X45" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF45" s="1" t="str">
-        <f>N/A=</f>
-        <v>#ERROR!</v>
+        <v>115</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>34</v>
@@ -5277,7 +5300,7 @@
         <v>38</v>
       </c>
       <c r="J46" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>39</v>
@@ -5292,65 +5315,65 @@
         <v>35</v>
       </c>
       <c r="O46" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q46" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S46" s="1">
-        <v>764327.0</v>
+        <v>764327</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X46" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -5371,7 +5394,7 @@
         <v>38</v>
       </c>
       <c r="J47" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>39</v>
@@ -5386,65 +5409,65 @@
         <v>35</v>
       </c>
       <c r="O47" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q47" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S47" s="1">
-        <v>764328.0</v>
+        <v>764328</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X47" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>34</v>
@@ -5465,7 +5488,7 @@
         <v>38</v>
       </c>
       <c r="J48" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>39</v>
@@ -5480,65 +5503,65 @@
         <v>35</v>
       </c>
       <c r="O48" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q48" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S48" s="1">
-        <v>764329.0</v>
+        <v>764329</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X48" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>34</v>
@@ -5559,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>39</v>
@@ -5574,65 +5597,65 @@
         <v>35</v>
       </c>
       <c r="O49" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q49" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S49" s="1">
-        <v>764330.0</v>
+        <v>764330</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X49" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
@@ -5653,7 +5676,7 @@
         <v>38</v>
       </c>
       <c r="J50" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>39</v>
@@ -5668,65 +5691,65 @@
         <v>35</v>
       </c>
       <c r="O50" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q50" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S50" s="1">
-        <v>764331.0</v>
+        <v>764331</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X50" s="6">
-        <v>44727.9053125</v>
+        <v>44727.905312499999</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
@@ -5747,7 +5770,7 @@
         <v>38</v>
       </c>
       <c r="J51" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>39</v>
@@ -5762,65 +5785,65 @@
         <v>35</v>
       </c>
       <c r="O51" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q51" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S51" s="1">
-        <v>764332.0</v>
+        <v>764332</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X51" s="6">
-        <v>44727.90565972222</v>
+        <v>44727.905659722222</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50084.0</v>
+        <v>50084</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>34</v>
@@ -5841,7 +5864,7 @@
         <v>38</v>
       </c>
       <c r="J52" s="1">
-        <v>50100.0</v>
+        <v>50100</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>39</v>
@@ -5856,1011 +5879,1011 @@
         <v>35</v>
       </c>
       <c r="O52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q52" s="6">
-        <v>44727.83231481481</v>
+        <v>44727.832314814812</v>
       </c>
       <c r="S52" s="1">
-        <v>764417.0</v>
+        <v>764417</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="X52" s="6">
-        <v>44727.90844907407</v>
+        <v>44727.908449074072</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="AH52" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH54" s="2" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>